--- a/biology/Zoologie/Botia_sidthimunki/Botia_sidthimunki.xlsx
+++ b/biology/Zoologie/Botia_sidthimunki/Botia_sidthimunki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yasuhikotakia sidthimunki, Botia sidthimunki
 Ambastaia sidthimunki, Botia nain ou  Botia sidthimunki ou Yasuhikotakia sidthimunki, est une espèce de poisson asiatique originaire du nord de la Thaïlande.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambastaia sidthimunki est souvent appelé par ses anciens noms, Botia sidthimunki, ou Yasuhikotakia sidthimunki. Ambastaia fait référence à la rivière Ambastai, correspondant au Mékong, et sidthimunki aurait été donner en l'honneur d'un chercheur thailandais, du nom d'Aree Sidthimunk[4].
-On peut aussi le trouver sous ses noms vernaculaires: Loche naine et Loche damier. En anglais, il est appelé Dwarf Clown Loach ou Dwarf Botia[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambastaia sidthimunki est souvent appelé par ses anciens noms, Botia sidthimunki, ou Yasuhikotakia sidthimunki. Ambastaia fait référence à la rivière Ambastai, correspondant au Mékong, et sidthimunki aurait été donner en l'honneur d'un chercheur thailandais, du nom d'Aree Sidthimunk.
+On peut aussi le trouver sous ses noms vernaculaires: Loche naine et Loche damier. En anglais, il est appelé Dwarf Clown Loach ou Dwarf Botia.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambastaia sidthimunki est un poisson de fond, par conséquent son corps est fusiforme et sa bouche est orientée vers le bas. Mais il nage aussi en pleine eau. Cette petite loche mesure jusqu'à 6 cm de long, bien que les femelles soient plus petites que les mâles. Il possède 3 paires de barbillons au niveau de la bouche, et une fine épine osseuse au-dessus des yeux. Cette dernière lui permet d'extraire les escargots, dont il se nourrit, de leur coquille. Ses écailles alternent des zones blanches et noires formant un damier[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambastaia sidthimunki est un poisson de fond, par conséquent son corps est fusiforme et sa bouche est orientée vers le bas. Mais il nage aussi en pleine eau. Cette petite loche mesure jusqu'à 6 cm de long, bien que les femelles soient plus petites que les mâles. Il possède 3 paires de barbillons au niveau de la bouche, et une fine épine osseuse au-dessus des yeux. Cette dernière lui permet d'extraire les escargots, dont il se nourrit, de leur coquille. Ses écailles alternent des zones blanches et noires formant un damier.
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson est originaire du nord de la Thaïlande, mais aujourd'hui à cause de la surpêche, principalement pour l'aquariophilie, de la pollution, et de la construction de barrage dans son aire de répartition, sa population a fortement diminué. Le botia nain pour l'aquariophilie provient de nos jours uniquement de l'élevage et non plus de la pêche dans son milieu naturel.
-Aujourd'hui, on ne le trouve plus que dans le bassin du Mékong au Laos, au Cambodge et en Thaïlande[7] dans deux cours d'eau protégés au-dessus du barrage de Mae Klong, le Kwae Noi et le ruisseau Songalia[5].
-Il vit donc sur le fond des rivières et des ruisseaux boisés montagnards, au courant fort[8] mais aussi dans les zones inondées et les petites pièces d’eau boueuses.
+Aujourd'hui, on ne le trouve plus que dans le bassin du Mékong au Laos, au Cambodge et en Thaïlande dans deux cours d'eau protégés au-dessus du barrage de Mae Klong, le Kwae Noi et le ruisseau Songalia.
+Il vit donc sur le fond des rivières et des ruisseaux boisés montagnards, au courant fort mais aussi dans les zones inondées et les petites pièces d’eau boueuses.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La loche naine est un poisson omnivore, bien qu'il ait une préférence pour les proies vivantes, comme les escargots d'eau douce et les crevettes[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La loche naine est un poisson omnivore, bien qu'il ait une préférence pour les proies vivantes, comme les escargots d'eau douce et les crevettes.
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est classée en danger critique d'extinction sur la liste rouge de l'UICN et est protégé par la loi thaïlandaise[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est classée en danger critique d'extinction sur la liste rouge de l'UICN et est protégé par la loi thaïlandaise.
 </t>
         </is>
       </c>
@@ -670,11 +692,13 @@
           <t>Aquariophilie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est populaire dans les animaleries, depuis 40 ans. Les poissons ont été frayés en captivité à grande échelle grâce à des hormones[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est populaire dans les animaleries, depuis 40 ans. Les poissons ont été frayés en captivité à grande échelle grâce à des hormones.
 Ambastaia nigrolineata est parfois vendu sous le nom de Ambastaia sidthimunki, du fait de leur grande ressemblance.
-Il est conseillé de lui fournir un aquarium d'au moins 100 litres bien planté, disposant d'aires de repos, avec de feuilles ou racines où le poisson aime reposer sur ses nageoires pelviennes. Il se plaira aussi bien dans un aquarium communautaire que dans un bac spécifique, tant qu'il est avec quelques-uns de ses congénères. L'eau doit être ente 22 et 30 degrés, et le pH entre 6 et 10[8].
+Il est conseillé de lui fournir un aquarium d'au moins 100 litres bien planté, disposant d'aires de repos, avec de feuilles ou racines où le poisson aime reposer sur ses nageoires pelviennes. Il se plaira aussi bien dans un aquarium communautaire que dans un bac spécifique, tant qu'il est avec quelques-uns de ses congénères. L'eau doit être ente 22 et 30 degrés, et le pH entre 6 et 10.
 </t>
         </is>
       </c>
